--- a/Data copy.xlsx
+++ b/Data copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18960" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t>Brute Force</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Heuristic 4, adj</t>
+  </si>
+  <si>
+    <t>Recursive 2</t>
+  </si>
+  <si>
+    <t>Recursive 5</t>
   </si>
 </sst>
 </file>
@@ -117,7 +123,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -125,6 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1384,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="934346224"/>
-        <c:axId val="934353104"/>
+        <c:axId val="-1987114160"/>
+        <c:axId val="-1979777552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="934346224"/>
+        <c:axId val="-1987114160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1506,12 +1513,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934353104"/>
+        <c:crossAx val="-1979777552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="934353104"/>
+        <c:axId val="-1979777552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1630,7 +1637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="934346224"/>
+        <c:crossAx val="-1987114160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1756,7 +1763,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2952,11 +2958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="966002464"/>
-        <c:axId val="966006320"/>
+        <c:axId val="-1937760192"/>
+        <c:axId val="-1937755920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="966002464"/>
+        <c:axId val="-1937760192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -3008,7 +3014,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3075,12 +3080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966006320"/>
+        <c:crossAx val="-1937755920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="966006320"/>
+        <c:axId val="-1937755920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3136,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3197,7 +3201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966002464"/>
+        <c:crossAx val="-1937760192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3211,7 +3215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3317,7 +3320,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> k=25, max target = k^3, trials=1000</a:t>
+              <a:t> k=25, max target = k^4, trials=1000</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3364,7 +3367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>Sheet1!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3376,7 +3379,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3399,7 +3402,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3450,51 +3453,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$O$25</c:f>
+              <c:f>Sheet1!$B$35:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.769999999999999</c:v>
+                  <c:v>2985.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4</c:v>
+                  <c:v>1616.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.69</c:v>
+                  <c:v>1357.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.63</c:v>
+                  <c:v>706.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>473.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72</c:v>
+                  <c:v>566.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74</c:v>
+                  <c:v>335.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77</c:v>
+                  <c:v>290.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,7 +3509,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$26</c:f>
+              <c:f>Sheet1!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3541,7 +3544,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3592,51 +3595,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$O$26</c:f>
+              <c:f>Sheet1!$B$36:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>175.19</c:v>
+                  <c:v>7903.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.0</c:v>
+                  <c:v>8481.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.0</c:v>
+                  <c:v>7325.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.0</c:v>
+                  <c:v>6379.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.44</c:v>
+                  <c:v>5789.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>5632.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.96</c:v>
+                  <c:v>5455.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.2</c:v>
+                  <c:v>5224.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.0</c:v>
+                  <c:v>5339.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.77</c:v>
+                  <c:v>4759.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.09</c:v>
+                  <c:v>2795.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.09</c:v>
+                  <c:v>1796.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12</c:v>
+                  <c:v>2057.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0</c:v>
+                  <c:v>530.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3648,7 +3651,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$27</c:f>
+              <c:f>Sheet1!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3683,7 +3686,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3734,51 +3737,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$O$27</c:f>
+              <c:f>Sheet1!$B$37:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>24.74</c:v>
+                  <c:v>375.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.0</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.08</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.0</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.07</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.99</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.0</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.0</c:v>
+                  <c:v>111.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.07</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.63</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.05</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,7 +3793,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$28</c:f>
+              <c:f>Sheet1!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3825,7 +3828,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3876,51 +3879,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$O$28</c:f>
+              <c:f>Sheet1!$B$38:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>105.04</c:v>
+                  <c:v>68711.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.0</c:v>
+                  <c:v>38761.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>36880.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.0</c:v>
+                  <c:v>36373.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.86</c:v>
+                  <c:v>35129.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.0</c:v>
+                  <c:v>34516.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.0</c:v>
+                  <c:v>32700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.97</c:v>
+                  <c:v>31446.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.0</c:v>
+                  <c:v>30110.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.0</c:v>
+                  <c:v>29018.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.63</c:v>
+                  <c:v>20934.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.52</c:v>
+                  <c:v>19637.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.0</c:v>
+                  <c:v>18763.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.0</c:v>
+                  <c:v>19149.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,7 +3935,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$29</c:f>
+              <c:f>Sheet1!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3967,7 +3970,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4018,51 +4021,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$O$29</c:f>
+              <c:f>Sheet1!$B$39:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>32.9</c:v>
+                  <c:v>71292.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0</c:v>
+                  <c:v>25759.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.75</c:v>
+                  <c:v>16369.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.66</c:v>
+                  <c:v>8671.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2</c:v>
+                  <c:v>5572.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
+                  <c:v>6059.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.42</c:v>
+                  <c:v>4310.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.22</c:v>
+                  <c:v>4737.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.24</c:v>
+                  <c:v>3685.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0</c:v>
+                  <c:v>2678.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.48</c:v>
+                  <c:v>940.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.42</c:v>
+                  <c:v>472.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.46</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.48</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,7 +4077,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$30</c:f>
+              <c:f>Sheet1!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4109,7 +4112,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4160,51 +4163,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$O$30</c:f>
+              <c:f>Sheet1!$B$40:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2917.31</c:v>
+                  <c:v>130965.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2488.0</c:v>
+                  <c:v>110469.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2313.0</c:v>
+                  <c:v>102115.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2114.0</c:v>
+                  <c:v>100176.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2045.0</c:v>
+                  <c:v>91609.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1966.0</c:v>
+                  <c:v>86791.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1865.0</c:v>
+                  <c:v>87627.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1967.0</c:v>
+                  <c:v>83922.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1893.0</c:v>
+                  <c:v>79967.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1746.0</c:v>
+                  <c:v>76755.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1451.0</c:v>
+                  <c:v>70161.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1376.0</c:v>
+                  <c:v>60728.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1094.0</c:v>
+                  <c:v>60151.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>911.0</c:v>
+                  <c:v>47533.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4216,7 +4219,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$31</c:f>
+              <c:f>Sheet1!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4253,7 +4256,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4304,51 +4307,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$O$31</c:f>
+              <c:f>Sheet1!$B$41:$O$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>41.38</c:v>
+                  <c:v>68673.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0</c:v>
+                  <c:v>4453.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6</c:v>
+                  <c:v>1708.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.08</c:v>
+                  <c:v>714.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.65</c:v>
+                  <c:v>574.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.31</c:v>
+                  <c:v>482.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2</c:v>
+                  <c:v>322.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.13</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.45</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4360,7 +4363,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$32</c:f>
+              <c:f>Sheet1!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4401,7 +4404,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$O$24</c:f>
+              <c:f>Sheet1!$B$34:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4452,51 +4455,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$O$32</c:f>
+              <c:f>Sheet1!$B$42:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2806.56</c:v>
+                  <c:v>130062.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2497.0</c:v>
+                  <c:v>105273.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2406.0</c:v>
+                  <c:v>106053.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2067.0</c:v>
+                  <c:v>95745.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1982.0</c:v>
+                  <c:v>91678.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1948.0</c:v>
+                  <c:v>87057.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1965.5</c:v>
+                  <c:v>86328.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1849.0</c:v>
+                  <c:v>81918.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1739.0</c:v>
+                  <c:v>80189.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1840.0</c:v>
+                  <c:v>77545.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1472.0</c:v>
+                  <c:v>61217.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1419.0</c:v>
+                  <c:v>66611.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1152.0</c:v>
+                  <c:v>45285.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>911.0</c:v>
+                  <c:v>46544.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,11 +4514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="966062656"/>
-        <c:axId val="966066928"/>
+        <c:axId val="-1937708560"/>
+        <c:axId val="-1937704288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="966062656"/>
+        <c:axId val="-1937708560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -4633,12 +4636,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966066928"/>
+        <c:crossAx val="-1937704288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="966066928"/>
+        <c:axId val="-1937704288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4756,7 +4759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="966062656"/>
+        <c:crossAx val="-1937708560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5995,11 +5998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="862911952"/>
-        <c:axId val="862913824"/>
+        <c:axId val="-1937649408"/>
+        <c:axId val="-1937646416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="862911952"/>
+        <c:axId val="-1937649408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,12 +6058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862913824"/>
+        <c:crossAx val="-1937646416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="862913824"/>
+        <c:axId val="-1937646416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6117,7 +6120,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862911952"/>
+        <c:crossAx val="-1937649408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7138,11 +7141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="862876528"/>
-        <c:axId val="862879360"/>
+        <c:axId val="-1936712512"/>
+        <c:axId val="-1936709248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="862876528"/>
+        <c:axId val="-1936712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7185,7 +7188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862879360"/>
+        <c:crossAx val="-1936709248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7193,7 +7196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="862879360"/>
+        <c:axId val="-1936709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7244,7 +7247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="862876528"/>
+        <c:crossAx val="-1936712512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8273,11 +8276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="905050992"/>
-        <c:axId val="905053280"/>
+        <c:axId val="-1937622800"/>
+        <c:axId val="-1937619536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="905050992"/>
+        <c:axId val="-1937622800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8320,7 +8323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905053280"/>
+        <c:crossAx val="-1937619536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8328,7 +8331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="905053280"/>
+        <c:axId val="-1937619536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8378,7 +8381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905050992"/>
+        <c:crossAx val="-1937622800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11798,16 +11801,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>935182</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>106219</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>715818</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>60036</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>118919</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>302490</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11862,16 +11865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>265548</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96692</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542639</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>277093</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>122093</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>554185</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>64366</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12260,10 +12263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13960,6 +13963,378 @@
       </c>
       <c r="O42">
         <v>46544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0.8</v>
+      </c>
+      <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4200000000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>40000000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>102</v>
+      </c>
+      <c r="C58">
+        <v>451</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8200000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4700000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="C59" s="3">
+        <v>360000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>51000000000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>55000000000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>108</v>
+      </c>
+      <c r="C60">
+        <v>73.5</v>
+      </c>
+      <c r="D60" s="3">
+        <v>82000000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>74000000000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>55000000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="3">
+        <v>68000</v>
+      </c>
+      <c r="C61" s="3">
+        <v>150000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>78000000000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>55000000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>109</v>
+      </c>
+      <c r="C62">
+        <v>58.4</v>
+      </c>
+      <c r="D62" s="3">
+        <v>87000000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>58000000000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>55000000000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3">
+        <v>69000</v>
+      </c>
+      <c r="C63" s="3">
+        <v>160000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>67000000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>58000000000</v>
+      </c>
+      <c r="F63" s="3">
+        <v>55000000000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>19000000000</v>
+      </c>
+      <c r="F64" s="3">
+        <v>23000000000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7700000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>39000000000</v>
+      </c>
+      <c r="F65" s="3">
+        <v>37000000000000</v>
       </c>
     </row>
   </sheetData>
